--- a/Ashok_leyland.xlsx
+++ b/Ashok_leyland.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3218B802-D319-4B31-B5D8-0792081AD9F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A369393-45DF-46CA-AE95-2BE527EE5CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" activeTab="2" xr2:uid="{07C50497-8CEF-473E-958A-C65BEDF2ACA3}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="15360" windowHeight="11070" activeTab="2" xr2:uid="{07C50497-8CEF-473E-958A-C65BEDF2ACA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="318">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -44,9 +44,6 @@
     <t>Project :-</t>
   </si>
   <si>
-    <t>Luminious_Mpartner</t>
-  </si>
-  <si>
     <t>Lead_Devp. :-</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>Close_Date</t>
   </si>
   <si>
-    <t>Project Name: Volvo_Eicher</t>
-  </si>
-  <si>
     <t>Created By:-</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
   </si>
   <si>
     <t>Module:-</t>
-  </si>
-  <si>
-    <t>Issue_New_Eicher_Xtend</t>
   </si>
   <si>
     <t>Power_ID :-</t>
@@ -1278,6 +1269,12 @@
   <si>
     <t>Claim</t>
   </si>
+  <si>
+    <t>Project Name: Ashok_Leyland</t>
+  </si>
+  <si>
+    <t>Ashok_Leyland</t>
+  </si>
 </sst>
 </file>
 
@@ -1287,7 +1284,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,7 +1342,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1359,7 +1356,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1520,40 +1517,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,9 +1538,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1595,12 +1556,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1609,6 +1564,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1932,7 +1929,7 @@
       <selection activeCell="E9" sqref="D8:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1941,75 +1938,75 @@
     <col min="9" max="9" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" ht="15" customHeight="1">
-      <c r="D8" s="34" t="s">
+    <row r="8" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="21">
+        <v>59</v>
+      </c>
+      <c r="G10" s="21">
+        <v>59</v>
+      </c>
+      <c r="H10" s="21">
+        <v>39</v>
+      </c>
+      <c r="I10" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="4:9" ht="15.75">
-      <c r="D9" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="4:9" ht="15.75">
-      <c r="D10" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E11" s="20"/>
+      <c r="F11" s="21">
         <v>59</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G11" s="21">
         <v>59</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H11" s="21">
         <v>39</v>
       </c>
-      <c r="I10" s="33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="15.75">
-      <c r="D11" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33">
-        <v>59</v>
-      </c>
-      <c r="G11" s="33">
-        <v>59</v>
-      </c>
-      <c r="H11" s="33">
-        <v>39</v>
-      </c>
-      <c r="I11" s="33">
+      <c r="I11" s="21">
         <v>20</v>
       </c>
     </row>
@@ -2027,10 +2024,10 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G24" sqref="A1:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -2050,159 +2047,159 @@
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="19"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21">
+      <c r="I3" s="30"/>
+      <c r="J3" s="31">
         <v>10029</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="E4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="H4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="I4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="J4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="L4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="M4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="O4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="P4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="180">
-      <c r="A5" s="24">
+    </row>
+    <row r="5" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>43876</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>90</v>
+      <c r="D5" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>265</v>
+        <v>85</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -2210,37 +2207,37 @@
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="195">
-      <c r="A6" s="24">
+    <row r="6" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>43876</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>93</v>
+      <c r="D6" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>266</v>
+        <v>88</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -2248,35 +2245,35 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" ht="210">
-      <c r="A7" s="24">
+    <row r="7" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>43876</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>268</v>
+      <c r="D7" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>267</v>
+        <v>91</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -2284,35 +2281,35 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16" ht="240">
-      <c r="A8" s="24">
+    <row r="8" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>43876</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>269</v>
+      <c r="D8" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>270</v>
+        <v>96</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -2320,35 +2317,35 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16" ht="240">
-      <c r="A9" s="24">
+    <row r="9" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>43876</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>104</v>
+      <c r="D9" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>271</v>
+        <v>99</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -2356,35 +2353,35 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="75">
-      <c r="A10" s="24">
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>43876</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>194</v>
+      <c r="D10" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>272</v>
+      <c r="H10" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -2392,35 +2389,35 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" ht="75">
-      <c r="A11" s="24">
+    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>43876</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>150</v>
+      <c r="D11" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="25" t="s">
-        <v>273</v>
+      <c r="H11" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -2428,37 +2425,37 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" ht="75">
-      <c r="A12" s="24">
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>43876</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>275</v>
+      <c r="D12" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>274</v>
+        <v>104</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -2466,37 +2463,37 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16" ht="75">
-      <c r="A13" s="24">
+    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>43876</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>111</v>
+      <c r="D13" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>274</v>
+        <v>107</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -2504,37 +2501,37 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16" ht="75">
-      <c r="A14" s="24">
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>43876</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>197</v>
+      <c r="D14" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>276</v>
+        <v>192</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -2542,37 +2539,37 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16" ht="75">
-      <c r="A15" s="24">
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>43876</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C15" s="7">
         <v>11</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>278</v>
+      <c r="D15" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>274</v>
+        <v>195</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -2580,37 +2577,37 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="75">
-      <c r="A16" s="24">
+    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
         <v>43876</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C16" s="7">
         <v>12</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>279</v>
+      <c r="D16" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>281</v>
+        <v>200</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -2618,37 +2615,37 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="90">
-      <c r="A17" s="24">
+    <row r="17" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>43876</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>280</v>
+      <c r="D17" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>281</v>
+        <v>203</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>278</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -2656,37 +2653,37 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="75">
-      <c r="A18" s="24">
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>43876</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C18" s="7">
         <v>14</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>218</v>
+      <c r="D18" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>277</v>
+        <v>208</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -2694,37 +2691,37 @@
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="135">
-      <c r="A19" s="24">
+    <row r="19" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
         <v>43876</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C19" s="7">
         <v>15</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>217</v>
+      <c r="D19" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>277</v>
+        <v>212</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -2732,35 +2729,35 @@
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="90">
-      <c r="A20" s="24">
+    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>43876</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="7">
         <v>16</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>241</v>
+      <c r="D20" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="25" t="s">
-        <v>283</v>
+      <c r="H20" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -2768,35 +2765,35 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="75">
-      <c r="A21" s="24">
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
         <v>43876</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C21" s="7">
         <v>17</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>257</v>
+      <c r="D21" s="9" t="s">
+        <v>254</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="25" t="s">
-        <v>282</v>
+      <c r="H21" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -2804,35 +2801,35 @@
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="60">
-      <c r="A22" s="24">
+    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>43876</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="15">
+        <v>284</v>
+      </c>
+      <c r="C22" s="9">
         <v>18</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>284</v>
+      <c r="D22" s="9" t="s">
+        <v>281</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="26" t="s">
-        <v>286</v>
+      <c r="H22" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="15" t="s">
-        <v>260</v>
+      <c r="J22" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -2840,31 +2837,33 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="105">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>43876</v>
+      </c>
       <c r="B23" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C23" s="7">
         <v>19</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>292</v>
+      <c r="D23" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="15" t="s">
-        <v>260</v>
+      <c r="J23" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -2872,33 +2871,35 @@
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="75">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>43876</v>
+      </c>
       <c r="B24" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="9">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="C24" s="15">
-        <v>20</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -2949,10 +2950,10 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="A1:K65"/>
+      <selection activeCell="C8" sqref="A1:K65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
@@ -2967,82 +2968,82 @@
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="35">
+        <v>43871</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11">
-        <v>43871</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="2">
         <v>10029</v>
@@ -3051,1574 +3052,1574 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="60">
-      <c r="A6" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="B6" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="45">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="45">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="60">
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="180">
+    <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="210">
+    <row r="11" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="225">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="225">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="240">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="240">
+    <row r="15" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="240">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="90">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="60">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="60">
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="60">
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="60">
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F21" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="75">
+    <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="F22" s="9"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="75">
+    <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="60">
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>143</v>
+      <c r="F24" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="60">
+    <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" ht="60">
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="60">
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="75">
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="60">
+    <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="75">
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="90">
+    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="90">
+    <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="75">
+    <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" ht="75">
+    <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E35" s="7"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" ht="60">
+    <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="15"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" ht="60">
+    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" ht="60">
+    <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" ht="60">
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D43" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="75">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="60">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="60">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" ht="135">
+    <row r="47" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="90">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" ht="105">
+    <row r="49" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="150">
+    <row r="50" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="105">
+    <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" ht="90">
+    <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" ht="90">
+    <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="105">
+    <row r="54" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="90">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" ht="90">
+    <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="1:11" ht="90">
+    <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="90">
+    <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:11" ht="90">
+    <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" ht="90">
+    <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" ht="60">
+    <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="75">
-      <c r="A62" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>262</v>
-      </c>
       <c r="C62" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="15" t="s">
-        <v>264</v>
+      <c r="H62" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:11" ht="240">
+    <row r="63" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="1:11" ht="60">
+    <row r="64" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="C64" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="1:11" ht="90">
+    <row r="65" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>

--- a/Ashok_leyland.xlsx
+++ b/Ashok_leyland.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A369393-45DF-46CA-AE95-2BE527EE5CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1882D718-FD12-4AFB-9C08-DE2A7315E0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="15360" windowHeight="11070" activeTab="2" xr2:uid="{07C50497-8CEF-473E-958A-C65BEDF2ACA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{07C50497-8CEF-473E-958A-C65BEDF2ACA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Bug_Report" sheetId="2" r:id="rId2"/>
     <sheet name="Claim" sheetId="3" r:id="rId3"/>
+    <sheet name="Agreement" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Claim!$K$5:$K$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Agreement!$M$5:$M$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Claim!$K$5:$K$69</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="476">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -1209,9 +1211,6 @@
     <t>Lead Dev.</t>
   </si>
   <si>
-    <t>Login Account</t>
-  </si>
-  <si>
     <t>No. of test Written</t>
   </si>
   <si>
@@ -1225,9 +1224,6 @@
   </si>
   <si>
     <t>TC_58</t>
-  </si>
-  <si>
-    <t>Dealer/Manager</t>
   </si>
   <si>
     <t>Total</t>
@@ -1274,6 +1270,1039 @@
   </si>
   <si>
     <t>Ashok_Leyland</t>
+  </si>
+  <si>
+    <t>Ranjeet</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>No need to change</t>
+  </si>
+  <si>
+    <t>Server Issue</t>
+  </si>
+  <si>
+    <t>Date :-</t>
+  </si>
+  <si>
+    <t>Test Case ID/ Module</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>TC_01/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_02/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_03/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_04/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_05/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_06/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_07/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_08/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_09/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_10/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_11/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_12/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_13/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_14/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_15/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_16/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_17/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_18/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_19/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_20/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_21/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_22/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_23/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_24/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_25/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_26/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_27/ Agreement</t>
+  </si>
+  <si>
+    <t>TC_28/ Agreement</t>
+  </si>
+  <si>
+    <t>To verify that Dealer is able to Navigate to Agreement Page</t>
+  </si>
+  <si>
+    <t>Click on Agreement on top left of the screen</t>
+  </si>
+  <si>
+    <t>Will be navigated to Agreement Page</t>
+  </si>
+  <si>
+    <t>To Verify that Dealer is able to Add-Agreement</t>
+  </si>
+  <si>
+    <t>Click on Add-Agreement</t>
+  </si>
+  <si>
+    <t>Leave all field blank and click on Save</t>
+  </si>
+  <si>
+    <t>This field is mandatory msg. will be displayed on top of mandatory field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :-
+Address :-
+Postal Code :-
+City :-
+State :-
+Assigned To :-
+Vehicle Invoice Date :-
+Make :-
+Registration Type :-
+Model :-
+Variant :-
+Fuel Type :-
+Vehicle Chassis No :-
+Registration No :-
+Odometer Reading :-
+Vehicle Delivery Date :-
+Engine No :-
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t>Mobile Phone No. should be of 10-digit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :- 987654321
+Address :-
+Postal Code :-
+City :-
+State :-
+Assigned To :-
+Vehicle Invoice Date :-
+Make :-
+Registration Type :-
+Model :-
+Variant :-
+Fuel Type :-
+Vehicle Chassis No :-
+Registration No :-
+Odometer Reading :-
+Vehicle Delivery Date :-
+Engine No :-
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :-
+City :-
+State :-
+Assigned To :-
+Vehicle Invoice Date :-
+Make :-
+Registration Type :-
+Model :-
+Variant :-
+Fuel Type :-
+Vehicle Chassis No :-
+Registration No :-
+Odometer Reading :-
+Vehicle Delivery Date :-
+Engine No :-
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t>Invalid Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :- 123
+City :-
+State :-
+Assigned To :-
+Vehicle Invoice Date :-
+Make :-
+Registration Type :-
+Model :-
+Variant :-
+Fuel Type :-
+Vehicle Chassis No :-
+Registration No :-
+Odometer Reading :-
+Vehicle Delivery Date :-
+Engine No :-
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t>Postal Code should be 6 digit number msg. will be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :- 123456
+City :- Salem
+State :- Tamil Nadu
+Assigned To :-
+Vehicle Invoice Date :-
+Make :-
+Registration Type :-
+Model :-
+Variant :-
+Fuel Type :-
+Vehicle Chassis No :-
+Registration No :-
+Odometer Reading :-
+Vehicle Delivery Date :-
+Engine No :-
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t>This field is mandatory msg. will be displayed on top of all remaining mandatory field</t>
+  </si>
+  <si>
+    <t>Vehicle Chassis No. can only be of 17 digit validation msg. will appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :- 123456
+City :- Salem
+State :- Tamil Nadu
+Assigned To :- Rainbow Motors Commercial Division
+Vehicle Invoice Date :- 19-07-2019
+Make :- Ashok Leyland
+Registration Type :- Commercial
+Fuel Type :- Diesel
+Vehicle Chassis No :- AB1CD23E4FGH1234
+Registration No :- 
+Odometer Reading :-
+Vehicle Delivery Date :-
+Engine No :-
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :- 123456
+City :- Salem
+State :- Tamil Nadu
+Assigned To :- Rainbow Motors Commercial Division
+Vehicle Invoice Date :- 19-07-2019
+Make :- Ashok Leyland
+Registration Type :- Commercial
+Fuel Type :- Diesel
+Vehicle Chassis No :- AB1CD23E4FGH12345
+Registration No :- 1234567890QWERTYUIOP
+Odometer Reading :-
+Vehicle Delivery Date :-
+Engine No :-
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t>Invalid Registration Number</t>
+  </si>
+  <si>
+    <t>There is no condition on registration No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :- 123456
+City :- Salem
+State :- Tamil Nadu
+Assigned To :- Rainbow Motors Commercial Division
+Vehicle Invoice Date :- 19-07-2019
+Make :- Ashok Leyland
+Registration Type :- Commercial
+Fuel Type :- Diesel
+Vehicle Chassis No :- AB1CD23E4FGH12345
+Registration No :- 1234567890QWERTYUIOP
+Odometer Reading :- 2000
+Vehicle Delivery Date :- 22-07-2019
+Engine No :- 1234567890ASDFGHJKL
+Extended Warranty :-
+EWS Retail :-
+Sales By :-
+Sales Manager Name :-
+Executive Name :-
+</t>
+  </si>
+  <si>
+    <t>Invalid Engine No.</t>
+  </si>
+  <si>
+    <t>There is no condition on Engine No.</t>
+  </si>
+  <si>
+    <t>First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :- 123456
+City :- Salem
+State :- Tamil Nadu
+Assigned To :- Rainbow Motors Commercial Division
+Vehicle Invoice Date :- 19-07-2019
+Make :- Ashok Leyland
+Registration Type :- Commercial
+Fuel Type :- Diesel
+Vehicle Chassis No :- AB1CD23E4FGH12345
+Registration No :- 1234567890QWERTYUIOP
+Odometer Reading :- 2000
+Vehicle Delivery Date :- 22-07-2019
+Engine No :- 1234567890ASDFGHJKL
+Extended Warranty :- EW3 1Years / 50000 Kms
+EWS Retail :- EWS4674
+Sales By :- Sales
+Sales Manager Name :- Bhola
+Executive Name :- GOLU</t>
+  </si>
+  <si>
+    <t>New Agreement will be Added</t>
+  </si>
+  <si>
+    <t>There is no condition on Address</t>
+  </si>
+  <si>
+    <t>Invalid Name</t>
+  </si>
+  <si>
+    <t>There is no condition on First Name</t>
+  </si>
+  <si>
+    <t>First Name :- @#12
+Mobile Phone :- 9876543210
+Address :- @#
+Postal Code :- 123456
+City :- Salem
+State :- Tamil Nadu
+Assigned To :- Rainbow Motors Commercial Division
+Vehicle Invoice Date :- 19-07-2019
+Make :- Ashok Leyland
+Registration Type :- Commercial
+Fuel Type :- Diesel
+Vehicle Chassis No :- AB1CD23E4FGH12345
+Registration No :- 1234567890QWERTYUIOP
+Odometer Reading :- 2000
+Vehicle Delivery Date :- 22-07-2019
+Engine No :- 1234567890ASDFGHJKL
+Extended Warranty :- EW3 1Years / 50000 Kms
+EWS Retail :- EWS4674
+Sales By :- Sales
+Sales Manager Name :- ##
+Executive Name :- #@</t>
+  </si>
+  <si>
+    <t>Invalid Sales manager name and Executive Name</t>
+  </si>
+  <si>
+    <t>Accepting Invalid Sales manager name and Executive Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that dealer is able to search agreement by Agreement Number </t>
+  </si>
+  <si>
+    <t>Click on search box below Agreement Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ Agreement Number :- SO95221</t>
+  </si>
+  <si>
+    <t>Agreement with agreement No. SO95221 will display</t>
+  </si>
+  <si>
+    <t>To verify that dealer is able to search agreement by First Name</t>
+  </si>
+  <si>
+    <t>Click on search box below First Name</t>
+  </si>
+  <si>
+    <t>First Name :- #12</t>
+  </si>
+  <si>
+    <t>All agreement with first name #12 will display</t>
+  </si>
+  <si>
+    <t>To verify that dealer is able to search agreement by Last Name</t>
+  </si>
+  <si>
+    <t>Click on search box below Last Name</t>
+  </si>
+  <si>
+    <t>Last Name :- s</t>
+  </si>
+  <si>
+    <t>All agreement with  Last Name :- S will be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that dealer is able to search agreement by Variant  </t>
+  </si>
+  <si>
+    <t>Click on search box below Variant</t>
+  </si>
+  <si>
+    <t>Variant :- Dost+</t>
+  </si>
+  <si>
+    <t>All agreement with Variant :- Dost+ will display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that dealer is able to search agreement by Vehicle Chassis No  </t>
+  </si>
+  <si>
+    <t>Vehicle Chassis No :- AB1CD23E4FGH12340</t>
+  </si>
+  <si>
+    <t>Agreement with Vehicle Chassis No :- AB1CD23E4FGH12340 will be displayed</t>
+  </si>
+  <si>
+    <t>To verify that dealer is able to search agreement by Assigned To</t>
+  </si>
+  <si>
+    <t>Assigned To :- Rainbow Motors Commercial Division</t>
+  </si>
+  <si>
+    <t>All agreement assinged ti Rainbow Motors Commercial Division will display</t>
+  </si>
+  <si>
+    <t>To verify that dealer is able to search agreement by Created Time :- 19-02-2020,20-02-2020</t>
+  </si>
+  <si>
+    <t>Created Time :- 19-02-2020,20-02-2020</t>
+  </si>
+  <si>
+    <t>All agreement created between selected date will appear.</t>
+  </si>
+  <si>
+    <t>Instead of Created Time it is searching with Created Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that dealer is able to search agreement by Status </t>
+  </si>
+  <si>
+    <t>Status :- Active</t>
+  </si>
+  <si>
+    <t>To verify that dealer can filter agreement by Active Agreement</t>
+  </si>
+  <si>
+    <t>1) Click on filter on present on top center of screen
+2) Click on Active Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To verify that dealer can filter agreement by Cancelled Agreements </t>
+  </si>
+  <si>
+    <t>1) Click on filter on present on top center of screen
+2) Click on Cancelled Agreements</t>
+  </si>
+  <si>
+    <t>All agreement whose status is active will be displayed</t>
+  </si>
+  <si>
+    <t>All agreement whose status is active will be Filtered</t>
+  </si>
+  <si>
+    <t>All agreement whose status is cancel will be Filtered</t>
+  </si>
+  <si>
+    <t>To verify that dealer can filter agreement by Pending for amendment</t>
+  </si>
+  <si>
+    <t>1) Click on filter on present on top center of screen
+2) Click on Pending for amendment</t>
+  </si>
+  <si>
+    <t>All agreement whose status is Pending for amendment will be Filtered</t>
+  </si>
+  <si>
+    <t>To verify that dealer can filter agreement by Pending for cancellation</t>
+  </si>
+  <si>
+    <t>1) Click on filter on present on top center of screen
+2) Click on Pending for cancellation</t>
+  </si>
+  <si>
+    <t>All agreement whose status is Pending for cancellation will be Filtered</t>
+  </si>
+  <si>
+    <t>To verify that dealer can filter agreement by Request for cancel Agreement</t>
+  </si>
+  <si>
+    <t>1) Click on filter on present on top center of screen
+2) Click on Request for cancel Agreement</t>
+  </si>
+  <si>
+    <t>All agreement whose status is Request for cancel Agreement will be Filtered</t>
+  </si>
+  <si>
+    <t>To verify that dealer can filter agreement by Total Agreement</t>
+  </si>
+  <si>
+    <t>1) Click on filter on present on top center of screen
+2) Click on Total Agreement</t>
+  </si>
+  <si>
+    <t>All agreement will display</t>
+  </si>
+  <si>
+    <t>To verify that status of agreement changes when warranty end date expires</t>
+  </si>
+  <si>
+    <t>1) Click on agreement
+2) open any agreement</t>
+  </si>
+  <si>
+    <t>Status will change to expired when Ext. Warranty End Date is expired</t>
+  </si>
+  <si>
+    <t>Even when Ext. Warranty End Date is expired status remains active</t>
+  </si>
+  <si>
+    <t>1) Login with manager/Dealer account
+2) Add claim</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date of job card is accepting older date than Ext . Warranty Start Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dealer E-mail ID is accepting wrong data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create New Claim :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diagnosis done by dealer field is accepting special character</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Creating New Miscellaneous Expenses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gst is not working</t>
+    </r>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <r>
+      <t>When clicking on save notification appears that</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> changes you made may not be saved</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add Agreement :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is no condition on First Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add Agreement :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is no condition on Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add Agreement :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is no condition on registration No.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add Agreement :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There is no condition on Engine No.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add Agreement :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accepting Invalid Sales manager name and Executive Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Search Agreement :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Instead of Created Time it is searching with Created Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agreement Status :-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Even when Ext. Warranty End Date is expired status remains active</t>
+    </r>
+  </si>
+  <si>
+    <t>Note 2. :-</t>
+  </si>
+  <si>
+    <t>Note 1. :-</t>
+  </si>
+  <si>
+    <t>Date of job card should not be more than 2 days old from present date</t>
+  </si>
+  <si>
+    <t>Vikash Jha/ Ranjeet</t>
+  </si>
+  <si>
+    <t>Failure date should be of same date as that of job card date or 2 day before job card date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date of job card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should not accept data more than 2 days old from present date</t>
+    </r>
+  </si>
+  <si>
+    <t>Date of job card is accepting older date than Ext . Warranty Start Date</t>
+  </si>
+  <si>
+    <t>Dealer E-mail ID is accepting wrong data</t>
+  </si>
+  <si>
+    <t>Diagnosis done by dealer field is accepting special character</t>
+  </si>
+  <si>
+    <t>Creating New Miscellaneous Expenses Gst is not working</t>
+  </si>
+  <si>
+    <t>TC_60</t>
+  </si>
+  <si>
+    <t>TC_62</t>
+  </si>
+  <si>
+    <t>TC_63</t>
+  </si>
+  <si>
+    <t>Date of job card should not accept older date than Ext. Warranty Start Date</t>
+  </si>
+  <si>
+    <t>Invalid Dealer E-mail ID msg. will display</t>
+  </si>
+  <si>
+    <t>Diagnosis done by dealer field should not accept special character</t>
+  </si>
+  <si>
+    <t>Creating New Miscellaneous Expenses Gst should work</t>
+  </si>
+  <si>
+    <t>To verify that Date of job card is accepting right Data</t>
+  </si>
+  <si>
+    <t>To verify that Dealer E-mail ID is accepting right Data</t>
+  </si>
+  <si>
+    <t>To verify that Diagnosis done by Dealer is accepting right Data</t>
+  </si>
+  <si>
+    <t>To verify that Dealer can create new Miscellaneous Expenses</t>
+  </si>
+  <si>
+    <t>Link To Test :-</t>
+  </si>
+  <si>
+    <t>http://13.127.206.20/tvsalphp7/index.php</t>
+  </si>
+  <si>
+    <t>on hold</t>
+  </si>
+  <si>
+    <t>possible validation already exist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failure date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be of same date as that of job card date or 2 day before job card date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failure date :-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> validation msg.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failure date should be same as job card date or maximum 2 days older than job card date)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Edit Document :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unable to edit Uploaded document in claim</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1400,7 +2429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1461,8 +2490,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1485,20 +2520,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1511,16 +2688,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,12 +2704,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,31 +2721,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,14 +2739,159 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1923,108 +3209,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF63260F-C5EA-4DD5-881C-6E4792E445F2}">
-  <dimension ref="D8:I11"/>
+  <dimension ref="C5:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="D8:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="17" t="s">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="H5" s="55" t="s">
+        <v>451</v>
+      </c>
+      <c r="I5" s="56"/>
+    </row>
+    <row r="6" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="G6" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H6" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="21">
-        <v>59</v>
-      </c>
-      <c r="G10" s="21">
-        <v>59</v>
-      </c>
-      <c r="H10" s="21">
-        <v>39</v>
-      </c>
-      <c r="I10" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="4:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D11" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21">
-        <v>59</v>
-      </c>
-      <c r="G11" s="21">
-        <v>59</v>
-      </c>
-      <c r="H11" s="21">
-        <v>39</v>
-      </c>
-      <c r="I11" s="21">
-        <v>20</v>
-      </c>
+    <row r="7" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="15">
+        <v>63</v>
+      </c>
+      <c r="G7" s="15">
+        <v>63</v>
+      </c>
+      <c r="H7" s="15">
+        <v>61</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="39">
+        <v>28</v>
+      </c>
+      <c r="G8" s="39">
+        <v>28</v>
+      </c>
+      <c r="H8" s="39">
+        <v>21</v>
+      </c>
+      <c r="I8" s="39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F9" s="41">
+        <f>SUM(F7:F8)</f>
+        <v>91</v>
+      </c>
+      <c r="G9" s="41">
+        <f>SUM(G7:G8)</f>
+        <v>91</v>
+      </c>
+      <c r="H9" s="41">
+        <f>SUM(H7:H8)</f>
+        <v>82</v>
+      </c>
+      <c r="I9" s="42">
+        <f>SUM(I7:I8)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+    </row>
+    <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="57" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:F8"/>
+  <mergeCells count="6">
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{A67E6DD4-51DC-49DE-A175-14869BE07E05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE78F03-79EB-415F-9559-B60A4BB69D7D}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="A1:P24"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,872 +3387,1674 @@
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="63"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="65"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65">
+        <v>10029</v>
+      </c>
+      <c r="K3" s="65"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="30" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="28">
         <v>2</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31" t="s">
+      <c r="D6" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="28">
+        <v>4</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="28">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28">
+        <v>6</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="28">
+        <v>7</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="28">
+        <v>8</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="28">
+        <v>9</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="28">
+        <v>10</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M14" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="28">
+        <v>11</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="28">
+        <v>12</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="28">
+        <v>13</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="28">
+        <v>14</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+    </row>
+    <row r="19" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>43876</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="16">
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="28">
+        <v>16</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="73">
+        <v>43876</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="6">
+        <v>17</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="28">
+        <v>18</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+    </row>
+    <row r="23" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="28">
+        <v>19</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+    </row>
+    <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>43876</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="28">
+        <v>20</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+    </row>
+    <row r="25" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="6">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26" s="6">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="6">
+        <v>23</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="6">
+        <v>24</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="6">
+        <v>25</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="6">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L30" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" s="6">
+        <v>27</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
+        <v>43881</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="C32" s="28">
+        <v>28</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M32" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+    </row>
+    <row r="33" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>43881</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="28">
         <v>29</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31">
-        <v>10029</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
+      <c r="D33" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K33" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+    </row>
+    <row r="34" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>43881</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" s="28">
+        <v>30</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+    </row>
+    <row r="35" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>43881</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" s="28">
+        <v>31</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+    </row>
+    <row r="36" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>43881</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28">
+        <v>32</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L36" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+    </row>
+    <row r="37" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>43881</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28">
+        <v>33</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+    </row>
+    <row r="38" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="73">
+        <v>43882</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6">
+        <v>34</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
+      <c r="L38" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="73">
+        <v>43882</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6">
+        <v>35</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K39" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="7">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-    </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="7">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="7">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="7">
-        <v>11</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="7">
-        <v>16</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="7">
-        <v>17</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="9">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" s="7">
-        <v>19</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>43876</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="9">
-        <v>20</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="L39" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2942,15 +5091,16 @@
     <hyperlink ref="H24" r:id="rId19" xr:uid="{5135E1B6-8ED4-4A62-BE2C-461BE445621D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914EE380-2705-4869-9BEC-A1A248E7321E}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:K65"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A66" sqref="A1:K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,1661 +5119,1789 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="72">
         <v>43871</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="1" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="68" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="68"/>
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="44">
         <v>10029</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11" ht="210" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="43"/>
+      <c r="H11" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
+      <c r="I11" s="43"/>
+      <c r="J11" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="43"/>
+      <c r="H12" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
+      <c r="I12" s="43"/>
+      <c r="J12" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="225" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="43"/>
+      <c r="H13" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
+      <c r="C15" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="43"/>
+      <c r="J15" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
+      <c r="C16" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="43"/>
+      <c r="H16" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="43"/>
+      <c r="J16" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="43"/>
+      <c r="H17" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
+      <c r="I17" s="43"/>
+      <c r="J17" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="6"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="6"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="6"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="F23" s="6"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="43"/>
+      <c r="H24" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
+      <c r="I26" s="43"/>
+      <c r="J26" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
+      <c r="E27" s="43"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
+      <c r="E28" s="43"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
+      <c r="E29" s="43"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
+      <c r="E30" s="43"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
+      <c r="E31" s="43"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
     </row>
     <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7" t="s">
+      <c r="E32" s="43"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
     </row>
     <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
+      <c r="E33" s="43"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
     </row>
     <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
     </row>
     <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="7" t="s">
+      <c r="C36" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7" t="s">
+      <c r="E36" s="43"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="C37" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7" t="s">
+      <c r="E37" s="43"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
     </row>
     <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
+      <c r="G39" s="43"/>
+      <c r="H39" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7" t="s">
+      <c r="I39" s="43"/>
+      <c r="J39" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
+      <c r="G40" s="43"/>
+      <c r="H40" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7" t="s">
+      <c r="I40" s="43"/>
+      <c r="J40" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="C41" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
+      <c r="G41" s="43"/>
+      <c r="H41" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7" t="s">
+      <c r="I41" s="43"/>
+      <c r="J41" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="C42" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
+      <c r="G42" s="43"/>
+      <c r="H42" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7" t="s">
+      <c r="I42" s="43"/>
+      <c r="J42" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="7" t="s">
+      <c r="C43" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
+      <c r="G43" s="43"/>
+      <c r="H43" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7" t="s">
+      <c r="I43" s="43"/>
+      <c r="J43" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C44" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
+      <c r="G44" s="43"/>
+      <c r="H44" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7" t="s">
+      <c r="I44" s="43"/>
+      <c r="J44" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="C45" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
+      <c r="G45" s="43"/>
+      <c r="H45" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7" t="s">
+      <c r="I45" s="43"/>
+      <c r="J45" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="C46" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
     </row>
     <row r="47" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
+      <c r="G47" s="43"/>
+      <c r="H47" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7" t="s">
+      <c r="I47" s="43"/>
+      <c r="J47" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C48" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
     </row>
     <row r="49" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="C49" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
     </row>
     <row r="50" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="C50" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
     </row>
     <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43" t="s">
         <v>230</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
     </row>
     <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="C52" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
     </row>
     <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="43" t="s">
         <v>232</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="7" t="s">
+      <c r="C53" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
     </row>
     <row r="54" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="8" t="s">
+      <c r="E54" s="43"/>
+      <c r="F54" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7" t="s">
+      <c r="G54" s="43"/>
+      <c r="H54" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7" t="s">
+      <c r="I54" s="43"/>
+      <c r="J54" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="C55" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7" t="s">
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
     </row>
     <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="7" t="s">
+      <c r="C56" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
     </row>
     <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
     </row>
     <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="7" t="s">
+      <c r="C58" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7" t="s">
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
     </row>
     <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="7" t="s">
+      <c r="C59" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7" t="s">
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
     </row>
     <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="C60" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7" t="s">
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
     </row>
     <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="7" t="s">
+      <c r="C61" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="43"/>
+      <c r="F61" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
+      <c r="G61" s="43"/>
+      <c r="H61" s="43" t="s">
         <v>253</v>
       </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7" t="s">
+      <c r="I61" s="43"/>
+      <c r="J61" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K61" s="43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="43" t="s">
         <v>260</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="9" t="s">
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
     </row>
     <row r="63" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="43" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7" t="s">
+      <c r="G63" s="43"/>
+      <c r="H63" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K63" s="43" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="E64" s="43" t="s">
         <v>305</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="F64" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="I64" s="43"/>
+      <c r="J64" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K64" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="E65" s="43"/>
+      <c r="F65" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K65" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="47" t="s">
+        <v>461</v>
+      </c>
+      <c r="I66" s="49"/>
+      <c r="J66" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K66" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="I67" s="49"/>
+      <c r="J67" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K67" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" s="49"/>
+      <c r="H68" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="I68" s="49"/>
+      <c r="J68" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K68" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="G69" s="49"/>
+      <c r="H69" s="47" t="s">
+        <v>464</v>
+      </c>
+      <c r="I69" s="49"/>
+      <c r="J69" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K69" s="43" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4639,4 +6917,1052 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841FD943-B555-4DA6-ADAB-854A619D314A}">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="25" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="25" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="69" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="21">
+        <v>43881</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="68"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C6" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C7" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C8" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C9" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C10" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C11" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C12" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C13" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C14" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C15" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C16" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C17" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C18" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C19" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C20" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C21" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C22" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C23" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C24" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C25" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C26" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C27" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B28" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C28" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B29" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C29" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C30" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C31" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B32" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C32" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="16">
+        <v>10098</v>
+      </c>
+      <c r="C33" s="24">
+        <v>43881</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ashok_leyland.xlsx
+++ b/Ashok_leyland.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1882D718-FD12-4AFB-9C08-DE2A7315E0CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D2015-2B2C-4702-B32D-611E2F7D38C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{07C50497-8CEF-473E-958A-C65BEDF2ACA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{07C50497-8CEF-473E-958A-C65BEDF2ACA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Bug_Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Claim" sheetId="3" r:id="rId3"/>
-    <sheet name="Agreement" sheetId="4" r:id="rId4"/>
+    <sheet name="Closed_Bug_Report" sheetId="5" r:id="rId3"/>
+    <sheet name="Claim" sheetId="3" r:id="rId4"/>
+    <sheet name="Agreement" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Agreement!$M$5:$M$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Claim!$K$5:$K$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Agreement!$M$5:$M$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Claim!$K$5:$K$69</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="476">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -2492,7 +2493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,7 +2675,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2724,9 +2725,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2750,21 +2748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2805,9 +2788,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2815,6 +2795,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2884,10 +2873,19 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3211,7 +3209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF63260F-C5EA-4DD5-881C-6E4792E445F2}">
   <dimension ref="C5:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3225,17 +3223,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="I5" s="56"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="12" t="s">
@@ -3272,83 +3270,83 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="33">
         <v>28</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="33">
         <v>28</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="33">
         <v>21</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="35">
         <f>SUM(F7:F8)</f>
         <v>91</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="35">
         <f>SUM(G7:G8)</f>
         <v>91</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="35">
         <f>SUM(H7:H8)</f>
         <v>82</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="36">
         <f>SUM(I7:I8)</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="54"/>
+      <c r="E17" s="55" t="s">
         <v>470</v>
       </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3368,10 +3366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE78F03-79EB-415F-9559-B60A4BB69D7D}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3395,76 +3393,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="64" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="65" t="s">
+      <c r="I2" s="60"/>
+      <c r="J2" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="64" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65">
+      <c r="I3" s="60"/>
+      <c r="J3" s="61">
         <v>10029</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3516,1545 +3514,545 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+    <row r="5" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>43876</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="s">
+      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="43">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L5" s="28" t="s">
+      <c r="K5" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="43" t="s">
         <v>316</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-    </row>
-    <row r="6" spans="1:16" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="28">
-        <v>2</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28" t="s">
+      <c r="M5" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+    </row>
+    <row r="6" spans="1:16" ht="405" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="6">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+    </row>
+    <row r="7" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="6">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+    </row>
+    <row r="8" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" s="6">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+    </row>
+    <row r="9" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="6">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+    </row>
+    <row r="10" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+    </row>
+    <row r="11" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="6">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+    </row>
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>43881</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="6">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="M12" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+    </row>
+    <row r="13" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>43882</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <v>43882</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L6" s="28" t="s">
+      <c r="K14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-    </row>
-    <row r="7" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="28">
-        <v>3</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>264</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M7" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:16" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="28">
-        <v>4</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:16" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="28">
-        <v>5</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28">
-        <v>6</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="28">
-        <v>7</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="28">
-        <v>8</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="28">
-        <v>9</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="28">
-        <v>10</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>440</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M14" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="28">
-        <v>11</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M15" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="28">
-        <v>12</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M16" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-    </row>
-    <row r="17" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="28">
-        <v>13</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-    </row>
-    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="28">
-        <v>14</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M18" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-    </row>
-    <row r="19" spans="1:16" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>43876</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="16">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K19" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M19" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="28">
-        <v>16</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M20" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-    </row>
-    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="73">
-        <v>43876</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="6">
-        <v>17</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="74" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="28">
-        <v>18</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
-        <v>283</v>
-      </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-    </row>
-    <row r="23" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="28">
-        <v>19</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>289</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-    </row>
-    <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="26">
-        <v>43876</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="28">
-        <v>20</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M24" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-    </row>
-    <row r="25" spans="1:16" ht="405" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>43881</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C25" s="6">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K25" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L25" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M25" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-    </row>
-    <row r="26" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>43881</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="C26" s="6">
-        <v>22</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L26" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>43881</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="C27" s="6">
-        <v>23</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K27" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L27" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M27" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>43881</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="6">
-        <v>24</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K28" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L28" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M28" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-    </row>
-    <row r="29" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>43881</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="6">
-        <v>25</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L29" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M29" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-    </row>
-    <row r="30" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>43881</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="C30" s="6">
-        <v>26</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K30" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L30" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M30" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>43881</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C31" s="6">
-        <v>27</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="K31" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L31" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="M31" s="46" t="s">
-        <v>471</v>
-      </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-    </row>
-    <row r="32" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="26">
-        <v>43881</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="C32" s="28">
-        <v>28</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>435</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M32" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-    </row>
-    <row r="33" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>43881</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="C33" s="28">
-        <v>29</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L33" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M33" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-    </row>
-    <row r="34" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>43881</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="C34" s="28">
-        <v>30</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L34" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M34" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-    </row>
-    <row r="35" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
-        <v>43881</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="C35" s="28">
-        <v>31</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L35" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M35" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-    </row>
-    <row r="36" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
-        <v>43881</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28">
-        <v>32</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K36" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L36" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M36" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-    </row>
-    <row r="37" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
-        <v>43881</v>
-      </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28">
-        <v>33</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K37" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="M37" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-    </row>
-    <row r="38" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A38" s="73">
-        <v>43882</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6">
-        <v>34</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="73">
-        <v>43882</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6">
-        <v>35</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5069,6 +4067,1176 @@
     <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{78BE27EC-50A0-4DE1-A664-2E8B7652C305}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F361EC-6E87-475A-9C19-487E2280DCD9}">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="61"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61">
+        <v>10029</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="71">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+    </row>
+    <row r="6" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="71">
+        <v>2</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+    </row>
+    <row r="7" spans="1:16" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="71">
+        <v>3</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L7" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+    </row>
+    <row r="8" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="71">
+        <v>4</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L8" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M8" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+    </row>
+    <row r="9" spans="1:16" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="71">
+        <v>5</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M9" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+    </row>
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71">
+        <v>6</v>
+      </c>
+      <c r="D10" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L10" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+    </row>
+    <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="71">
+        <v>7</v>
+      </c>
+      <c r="D11" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="71"/>
+      <c r="H11" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+    </row>
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="71">
+        <v>8</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M12" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+    </row>
+    <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="71">
+        <v>9</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K13" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+    </row>
+    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="71">
+        <v>10</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>440</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M14" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+    </row>
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="71">
+        <v>11</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L15" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M15" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+    </row>
+    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="71">
+        <v>12</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L16" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M16" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+    </row>
+    <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="71">
+        <v>13</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L17" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M17" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+    </row>
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="71">
+        <v>14</v>
+      </c>
+      <c r="D18" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L18" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M18" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+    </row>
+    <row r="19" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="71">
+        <v>16</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="71"/>
+      <c r="H19" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L19" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+    </row>
+    <row r="20" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="71">
+        <v>17</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="71"/>
+      <c r="H20" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M20" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+    </row>
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="71">
+        <v>18</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="71"/>
+      <c r="H21" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K21" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+    </row>
+    <row r="22" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="71">
+        <v>19</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K22" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L22" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M22" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+    </row>
+    <row r="23" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="69">
+        <v>43876</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>291</v>
+      </c>
+      <c r="C23" s="71">
+        <v>20</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="E23" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="71"/>
+      <c r="H23" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L23" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M23" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+    </row>
+    <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
+        <v>43881</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>458</v>
+      </c>
+      <c r="C24" s="71">
+        <v>28</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>435</v>
+      </c>
+      <c r="E24" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L24" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M24" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+    </row>
+    <row r="25" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="69">
+        <v>43881</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="71">
+        <v>29</v>
+      </c>
+      <c r="D25" s="71" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K25" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L25" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M25" s="71" t="s">
+        <v>472</v>
+      </c>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+    </row>
+    <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
+        <v>43881</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26" s="71">
+        <v>30</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L26" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+    </row>
+    <row r="27" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="69">
+        <v>43881</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="71">
+        <v>31</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>438</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L27" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M27" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+    </row>
+    <row r="28" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
+        <v>43881</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71">
+        <v>32</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L28" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M28" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+    </row>
+    <row r="29" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
+        <v>43881</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71">
+        <v>33</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" s="71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L29" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="M29" s="71" t="s">
+        <v>317</v>
+      </c>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="H5" r:id="rId1" xr:uid="{E7986650-68B5-440B-8D4B-C34CFC79F6B6}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{C1362394-5BCA-4020-8848-799F34F1DC5D}"/>
@@ -5084,18 +5252,16 @@
     <hyperlink ref="H16" r:id="rId12" xr:uid="{4A086581-D9F4-4AFD-8EC5-C53EE6E4D801}"/>
     <hyperlink ref="H17" r:id="rId13" xr:uid="{EB75FB95-799A-440A-A85A-FA5F431FC191}"/>
     <hyperlink ref="H18" r:id="rId14" xr:uid="{396CCBE7-30F6-4060-9517-BF8FC7CC5747}"/>
-    <hyperlink ref="H19" r:id="rId15" xr:uid="{78BE27EC-50A0-4DE1-A664-2E8B7652C305}"/>
-    <hyperlink ref="H21" r:id="rId16" xr:uid="{01E47A95-A031-473A-94D8-881B0CD38577}"/>
-    <hyperlink ref="H20" r:id="rId17" xr:uid="{542B1EDC-3353-4A88-9D04-BCF311FFD333}"/>
-    <hyperlink ref="H22" r:id="rId18" xr:uid="{7361FF98-71FA-40A6-85C9-88348EEAFF2C}"/>
-    <hyperlink ref="H24" r:id="rId19" xr:uid="{5135E1B6-8ED4-4A62-BE2C-461BE445621D}"/>
+    <hyperlink ref="H19" r:id="rId15" xr:uid="{542B1EDC-3353-4A88-9D04-BCF311FFD333}"/>
+    <hyperlink ref="H21" r:id="rId16" xr:uid="{7361FF98-71FA-40A6-85C9-88348EEAFF2C}"/>
+    <hyperlink ref="H23" r:id="rId17" xr:uid="{5135E1B6-8ED4-4A62-BE2C-461BE445621D}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{01E47A95-A031-473A-94D8-881B0CD38577}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914EE380-2705-4869-9BEC-A1A248E7321E}">
   <dimension ref="A1:K69"/>
   <sheetViews>
@@ -5119,88 +5285,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="68">
         <v>43871</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="45" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
       <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="45" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="38">
         <v>10029</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -5241,147 +5407,147 @@
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43" t="s">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="37" t="s">
         <v>85</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5389,30 +5555,30 @@
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="37" t="s">
         <v>88</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43" t="s">
+      <c r="I12" s="37"/>
+      <c r="J12" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5420,28 +5586,28 @@
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43" t="s">
+      <c r="C13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
         <v>91</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43" t="s">
+      <c r="I13" s="37"/>
+      <c r="J13" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5449,51 +5615,51 @@
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43" t="s">
+      <c r="C15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37" t="s">
         <v>96</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43" t="s">
+      <c r="I15" s="37"/>
+      <c r="J15" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5501,57 +5667,57 @@
       <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37" t="s">
         <v>99</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43" t="s">
+      <c r="G16" s="37"/>
+      <c r="H16" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43" t="s">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="37" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="37" t="s">
         <v>121</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43" t="s">
+      <c r="G17" s="37"/>
+      <c r="H17" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43" t="s">
+      <c r="I17" s="37"/>
+      <c r="J17" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5559,230 +5725,230 @@
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="37" t="s">
         <v>119</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43" t="s">
+      <c r="G18" s="37"/>
+      <c r="H18" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="37" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="37" t="s">
         <v>123</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43" t="s">
+      <c r="G20" s="37"/>
+      <c r="H20" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="37" t="s">
         <v>124</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="37" t="s">
         <v>126</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43" t="s">
+      <c r="G22" s="37"/>
+      <c r="H22" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="43" t="s">
+      <c r="C23" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="37" t="s">
         <v>128</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43" t="s">
+      <c r="G23" s="37"/>
+      <c r="H23" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="43" t="s">
+      <c r="C24" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="43" t="s">
+      <c r="E24" s="37" t="s">
         <v>142</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43" t="s">
+      <c r="G24" s="37"/>
+      <c r="H24" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="43" t="s">
+      <c r="C25" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="37" t="s">
         <v>141</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43" t="s">
+      <c r="G25" s="37"/>
+      <c r="H25" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="43" t="s">
+      <c r="C26" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43" t="s">
+      <c r="G26" s="37"/>
+      <c r="H26" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43" t="s">
+      <c r="I26" s="37"/>
+      <c r="J26" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="43" t="s">
+      <c r="K26" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5790,306 +5956,306 @@
       <c r="A27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="43" t="s">
+      <c r="C27" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43" t="s">
+      <c r="G27" s="37"/>
+      <c r="H27" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="43" t="s">
+      <c r="C28" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43" t="s">
+      <c r="G28" s="37"/>
+      <c r="H28" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43" t="s">
+      <c r="G29" s="37"/>
+      <c r="H29" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43" t="s">
+      <c r="G30" s="37"/>
+      <c r="H30" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="43" t="s">
+      <c r="C31" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43" t="s">
+      <c r="G31" s="37"/>
+      <c r="H31" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="43" t="s">
+      <c r="C32" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43" t="s">
+      <c r="G32" s="37"/>
+      <c r="H32" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="43" t="s">
+      <c r="C33" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43" t="s">
+      <c r="G33" s="37"/>
+      <c r="H33" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43" t="s">
+      <c r="G34" s="37"/>
+      <c r="H34" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="43" t="s">
+      <c r="C35" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43" t="s">
+      <c r="G35" s="37"/>
+      <c r="H35" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="43" t="s">
+      <c r="C36" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="43"/>
+      <c r="E36" s="37"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43" t="s">
+      <c r="G36" s="37"/>
+      <c r="H36" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="43" t="s">
+      <c r="C37" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="43"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="6"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43" t="s">
+      <c r="G37" s="37"/>
+      <c r="H37" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="E38" s="43"/>
+      <c r="E38" s="37"/>
       <c r="F38" s="6"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43" t="s">
+      <c r="G38" s="37"/>
+      <c r="H38" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="43" t="s">
+      <c r="C39" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="37" t="s">
         <v>104</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43" t="s">
+      <c r="G39" s="37"/>
+      <c r="H39" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43" t="s">
+      <c r="I39" s="37"/>
+      <c r="J39" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="K39" s="43" t="s">
+      <c r="K39" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6097,30 +6263,30 @@
       <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" s="43" t="s">
+      <c r="C40" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="37" t="s">
         <v>107</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43" t="s">
+      <c r="G40" s="37"/>
+      <c r="H40" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43" t="s">
+      <c r="I40" s="37"/>
+      <c r="J40" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6128,30 +6294,30 @@
       <c r="A41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="43" t="s">
+      <c r="C41" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="37" t="s">
         <v>192</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43" t="s">
+      <c r="G41" s="37"/>
+      <c r="H41" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43" t="s">
+      <c r="I41" s="37"/>
+      <c r="J41" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="K41" s="43" t="s">
+      <c r="K41" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6159,30 +6325,30 @@
       <c r="A42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="43" t="s">
+      <c r="C42" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="37" t="s">
         <v>195</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43" t="s">
+      <c r="G42" s="37"/>
+      <c r="H42" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43" t="s">
+      <c r="I42" s="37"/>
+      <c r="J42" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6190,30 +6356,30 @@
       <c r="A43" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C43" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="43" t="s">
+      <c r="C43" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="37" t="s">
         <v>200</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43" t="s">
+      <c r="G43" s="37"/>
+      <c r="H43" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43" t="s">
+      <c r="I43" s="37"/>
+      <c r="J43" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="K43" s="43" t="s">
+      <c r="K43" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6221,30 +6387,30 @@
       <c r="A44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="43" t="s">
+      <c r="C44" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="37" t="s">
         <v>203</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43" t="s">
+      <c r="G44" s="37"/>
+      <c r="H44" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43" t="s">
+      <c r="I44" s="37"/>
+      <c r="J44" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="K44" s="43" t="s">
+      <c r="K44" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6252,30 +6418,30 @@
       <c r="A45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" s="43" t="s">
+      <c r="C45" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="37" t="s">
         <v>208</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43" t="s">
+      <c r="G45" s="37"/>
+      <c r="H45" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43" t="s">
+      <c r="I45" s="37"/>
+      <c r="J45" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="K45" s="43" t="s">
+      <c r="K45" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6283,55 +6449,55 @@
       <c r="A46" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="43" t="s">
+      <c r="C46" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43" t="s">
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C47" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="43" t="s">
+      <c r="C47" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="37" t="s">
         <v>212</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43" t="s">
+      <c r="G47" s="37"/>
+      <c r="H47" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43" t="s">
+      <c r="I47" s="37"/>
+      <c r="J47" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6339,170 +6505,170 @@
       <c r="A48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="C48" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="43" t="s">
+      <c r="C48" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43" t="s">
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C49" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="43" t="s">
+      <c r="C49" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43" t="s">
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="C50" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="43" t="s">
+      <c r="C50" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43" t="s">
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="37" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="43" t="s">
+      <c r="C51" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43" t="s">
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="43" t="s">
+      <c r="C52" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43" t="s">
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="C53" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="43" t="s">
+      <c r="C53" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43" t="s">
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="43" t="s">
+      <c r="C54" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E54" s="43"/>
+      <c r="E54" s="37"/>
       <c r="F54" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43" t="s">
+      <c r="G54" s="37"/>
+      <c r="H54" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43" t="s">
+      <c r="I54" s="37"/>
+      <c r="J54" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K54" s="43" t="s">
+      <c r="K54" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6510,166 +6676,166 @@
       <c r="A55" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="43" t="s">
+      <c r="C55" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43" t="s">
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="43" t="s">
+      <c r="C56" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43" t="s">
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="C57" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="43" t="s">
+      <c r="C57" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43" t="s">
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="C58" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="43" t="s">
+      <c r="C58" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43" t="s">
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D59" s="43" t="s">
+      <c r="C59" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43" t="s">
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="C60" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D60" s="43" t="s">
+      <c r="C60" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43" t="s">
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="C61" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="43" t="s">
+      <c r="C61" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="43"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43" t="s">
+      <c r="G61" s="37"/>
+      <c r="H61" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43" t="s">
+      <c r="I61" s="37"/>
+      <c r="J61" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K61" s="43" t="s">
+      <c r="K61" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6680,50 +6846,50 @@
       <c r="B62" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="43" t="s">
+      <c r="C62" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
       <c r="H62" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="43" t="s">
+      <c r="C63" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="37" t="s">
         <v>286</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43" t="s">
+      <c r="G63" s="37"/>
+      <c r="H63" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43" t="s">
+      <c r="I63" s="37"/>
+      <c r="J63" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K63" s="43" t="s">
+      <c r="K63" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6731,30 +6897,30 @@
       <c r="A64" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="C64" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D64" s="43" t="s">
+      <c r="C64" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="E64" s="43" t="s">
+      <c r="E64" s="37" t="s">
         <v>305</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43" t="s">
+      <c r="G64" s="37"/>
+      <c r="H64" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43" t="s">
+      <c r="I64" s="37"/>
+      <c r="J64" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K64" s="43" t="s">
+      <c r="K64" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6762,28 +6928,28 @@
       <c r="A65" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D65" s="43" t="s">
+      <c r="C65" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="43"/>
+      <c r="E65" s="37"/>
       <c r="F65" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43" t="s">
+      <c r="G65" s="37"/>
+      <c r="H65" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43" t="s">
+      <c r="I65" s="37"/>
+      <c r="J65" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K65" s="43" t="s">
+      <c r="K65" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6794,25 +6960,25 @@
       <c r="B66" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C66" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="43" t="s">
+      <c r="C66" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="48" t="s">
+      <c r="E66" s="42"/>
+      <c r="F66" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="47" t="s">
+      <c r="G66" s="42"/>
+      <c r="H66" s="40" t="s">
         <v>461</v>
       </c>
-      <c r="I66" s="49"/>
-      <c r="J66" s="43" t="s">
+      <c r="I66" s="42"/>
+      <c r="J66" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K66" s="43" t="s">
+      <c r="K66" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6823,25 +6989,25 @@
       <c r="B67" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C67" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D67" s="43" t="s">
+      <c r="C67" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="E67" s="49"/>
+      <c r="E67" s="42"/>
       <c r="F67" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="43" t="s">
+      <c r="G67" s="42"/>
+      <c r="H67" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="I67" s="49"/>
-      <c r="J67" s="43" t="s">
+      <c r="I67" s="42"/>
+      <c r="J67" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K67" s="43" t="s">
+      <c r="K67" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6852,25 +7018,25 @@
       <c r="B68" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C68" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="43" t="s">
+      <c r="C68" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="E68" s="49"/>
+      <c r="E68" s="42"/>
       <c r="F68" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="43" t="s">
+      <c r="G68" s="42"/>
+      <c r="H68" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="I68" s="49"/>
-      <c r="J68" s="43" t="s">
+      <c r="I68" s="42"/>
+      <c r="J68" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K68" s="43" t="s">
+      <c r="K68" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6881,25 +7047,25 @@
       <c r="B69" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C69" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="43" t="s">
+      <c r="C69" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="48" t="s">
+      <c r="E69" s="42"/>
+      <c r="F69" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="47" t="s">
+      <c r="G69" s="42"/>
+      <c r="H69" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="I69" s="49"/>
-      <c r="J69" s="43" t="s">
+      <c r="I69" s="42"/>
+      <c r="J69" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="K69" s="43" t="s">
+      <c r="K69" s="37" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6919,7 +7085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841FD943-B555-4DA6-ADAB-854A619D314A}">
   <dimension ref="A1:M33"/>
   <sheetViews>
@@ -6929,114 +7095,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="25" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="25" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="24" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>43881</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="64" t="s">
         <v>322</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>320</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -7071,13 +7237,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>323</v>
       </c>
       <c r="B6" s="16">
         <v>10098</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>43881</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -7100,13 +7266,13 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>324</v>
       </c>
       <c r="B7" s="16">
         <v>10098</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>43881</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -7129,13 +7295,13 @@
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>325</v>
       </c>
       <c r="B8" s="16">
         <v>10098</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>43881</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -7160,13 +7326,13 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" ht="360" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>326</v>
       </c>
       <c r="B9" s="16">
         <v>10098</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>43881</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -7197,13 +7363,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="360" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>327</v>
       </c>
       <c r="B10" s="16">
         <v>10098</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="23">
         <v>43881</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -7228,13 +7394,13 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13" ht="360" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>328</v>
       </c>
       <c r="B11" s="16">
         <v>10098</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>43881</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -7265,13 +7431,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="360" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>329</v>
       </c>
       <c r="B12" s="16">
         <v>10098</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>43881</v>
       </c>
       <c r="D12" s="16" t="s">
@@ -7296,13 +7462,13 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13" ht="360" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>330</v>
       </c>
       <c r="B13" s="16">
         <v>10098</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>43881</v>
       </c>
       <c r="D13" s="16" t="s">
@@ -7327,13 +7493,13 @@
       <c r="M13" s="16"/>
     </row>
     <row r="14" spans="1:13" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>331</v>
       </c>
       <c r="B14" s="16">
         <v>10098</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>43881</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -7358,13 +7524,13 @@
       <c r="M14" s="16"/>
     </row>
     <row r="15" spans="1:13" ht="375" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>332</v>
       </c>
       <c r="B15" s="16">
         <v>10098</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="23">
         <v>43881</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -7395,13 +7561,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>333</v>
       </c>
       <c r="B16" s="16">
         <v>10098</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>43881</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -7432,13 +7598,13 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>334</v>
       </c>
       <c r="B17" s="16">
         <v>10098</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>43881</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -7463,13 +7629,13 @@
       <c r="M17" s="16"/>
     </row>
     <row r="18" spans="1:13" ht="390" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>335</v>
       </c>
       <c r="B18" s="16">
         <v>10098</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>43881</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -7500,13 +7666,13 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>336</v>
       </c>
       <c r="B19" s="16">
         <v>10098</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>43881</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -7531,13 +7697,13 @@
       <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>337</v>
       </c>
       <c r="B20" s="16">
         <v>10098</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>43881</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -7562,13 +7728,13 @@
       <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>338</v>
       </c>
       <c r="B21" s="16">
         <v>10098</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>43881</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -7593,13 +7759,13 @@
       <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>339</v>
       </c>
       <c r="B22" s="16">
         <v>10098</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>43881</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -7624,13 +7790,13 @@
       <c r="M22" s="16"/>
     </row>
     <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>340</v>
       </c>
       <c r="B23" s="16">
         <v>10098</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>43881</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -7653,13 +7819,13 @@
       <c r="M23" s="16"/>
     </row>
     <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>341</v>
       </c>
       <c r="B24" s="16">
         <v>10098</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>43881</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -7682,13 +7848,13 @@
       <c r="M24" s="16"/>
     </row>
     <row r="25" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B25" s="16">
         <v>10098</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>43881</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -7717,13 +7883,13 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>343</v>
       </c>
       <c r="B26" s="16">
         <v>10098</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <v>43881</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -7746,13 +7912,13 @@
       <c r="M26" s="16"/>
     </row>
     <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>344</v>
       </c>
       <c r="B27" s="16">
         <v>10098</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>43881</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -7775,13 +7941,13 @@
       <c r="M27" s="16"/>
     </row>
     <row r="28" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>345</v>
       </c>
       <c r="B28" s="16">
         <v>10098</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>43881</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -7804,13 +7970,13 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>346</v>
       </c>
       <c r="B29" s="16">
         <v>10098</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>43881</v>
       </c>
       <c r="D29" s="16" t="s">
@@ -7833,13 +7999,13 @@
       <c r="M29" s="16"/>
     </row>
     <row r="30" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>347</v>
       </c>
       <c r="B30" s="16">
         <v>10098</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>43881</v>
       </c>
       <c r="D30" s="16" t="s">
@@ -7862,13 +8028,13 @@
       <c r="M30" s="16"/>
     </row>
     <row r="31" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>348</v>
       </c>
       <c r="B31" s="16">
         <v>10098</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>43881</v>
       </c>
       <c r="D31" s="16" t="s">
@@ -7891,13 +8057,13 @@
       <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>349</v>
       </c>
       <c r="B32" s="16">
         <v>10098</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>43881</v>
       </c>
       <c r="D32" s="16" t="s">
@@ -7920,13 +8086,13 @@
       <c r="M32" s="16"/>
     </row>
     <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>350</v>
       </c>
       <c r="B33" s="16">
         <v>10098</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="23">
         <v>43881</v>
       </c>
       <c r="D33" s="16" t="s">

--- a/Ashok_leyland.xlsx
+++ b/Ashok_leyland.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechFour\Documents\GitHub\Test-Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D2015-2B2C-4702-B32D-611E2F7D38C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DE6E4-1E46-4919-8AC3-655D9582B0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11070" activeTab="1" xr2:uid="{07C50497-8CEF-473E-958A-C65BEDF2ACA3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="479">
   <si>
     <t xml:space="preserve">Bug Report </t>
   </si>
@@ -2304,6 +2304,35 @@
       </rPr>
       <t>Unable to edit Uploaded document in claim</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Editing Miscellaneous Expenses :- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In Editing Miscellaneous Expenses Amount should be marked as mandatory field</t>
+    </r>
+  </si>
+  <si>
+    <t>Upload file of ODO Meter Reading Photo, Vehicle History, Photo/Video Of Failed Component document varying from size (0MB to 05MB)</t>
+  </si>
+  <si>
+    <t>Old</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2704,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2804,6 +2833,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2871,24 +2924,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3223,17 +3258,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="59" t="s">
         <v>451</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E6" s="12" t="s">
@@ -3312,41 +3347,41 @@
       <c r="C14" s="30" t="s">
         <v>449</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="61" t="s">
         <v>469</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63" t="s">
         <v>470</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3366,10 +3401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE78F03-79EB-415F-9559-B60A4BB69D7D}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,76 +3428,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="60" t="s">
+      <c r="D2" s="67"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="60" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69">
         <v>10029</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3521,40 +3556,40 @@
       <c r="B5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="46">
         <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>212</v>
+      <c r="G5" s="46" t="s">
+        <v>477</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="L5" s="43" t="s">
+      <c r="K5" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="L5" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
     </row>
     <row r="6" spans="1:16" ht="405" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -3569,32 +3604,32 @@
       <c r="D6" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K6" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
     </row>
     <row r="7" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
@@ -3609,32 +3644,32 @@
       <c r="D7" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43" t="s">
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
     </row>
     <row r="8" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
@@ -3649,32 +3684,32 @@
       <c r="D8" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
@@ -3689,32 +3724,32 @@
       <c r="D9" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43" t="s">
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="43" t="s">
+      <c r="K9" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M9" s="43" t="s">
+      <c r="M9" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
     </row>
     <row r="10" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
@@ -3729,32 +3764,32 @@
       <c r="D10" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E10" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
     </row>
     <row r="11" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -3769,30 +3804,30 @@
       <c r="D11" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43" t="s">
+      <c r="E11" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43" t="s">
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M11" s="43" t="s">
+      <c r="M11" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
     </row>
     <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -3807,41 +3842,41 @@
       <c r="D12" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="43" t="s">
+      <c r="E12" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M12" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+    </row>
+    <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>43882</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>71</v>
@@ -3853,7 +3888,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>295</v>
@@ -3866,16 +3901,16 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>71</v>
@@ -3886,13 +3921,13 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="46" t="s">
         <v>316</v>
       </c>
       <c r="M14" s="6"/>
@@ -3920,9 +3955,9 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -3937,7 +3972,7 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="28"/>
       <c r="C17" s="25"/>
       <c r="D17" s="29"/>
@@ -3951,8 +3986,8 @@
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
@@ -3987,8 +4022,6 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
@@ -4037,22 +4070,6 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4077,10 +4094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F361EC-6E87-475A-9C19-487E2280DCD9}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,45 +4121,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="44"/>
       <c r="M2" s="43"/>
       <c r="N2" s="43"/>
@@ -4150,25 +4167,25 @@
       <c r="P2" s="43"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61">
+      <c r="I3" s="68"/>
+      <c r="J3" s="69">
         <v>10029</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="44"/>
       <c r="M3" s="43"/>
       <c r="N3" s="43"/>
@@ -4226,1004 +4243,1040 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="69">
+      <c r="A5" s="48">
         <v>43876</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="50">
         <v>1</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="71" t="s">
+      <c r="E5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71" t="s">
+      <c r="I5" s="50"/>
+      <c r="J5" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
     </row>
     <row r="6" spans="1:16" ht="225" x14ac:dyDescent="0.25">
-      <c r="A6" s="69">
+      <c r="A6" s="48">
         <v>43876</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="50">
         <v>2</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="1:16" ht="225" x14ac:dyDescent="0.25">
-      <c r="A7" s="69">
+      <c r="A7" s="48">
         <v>43876</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="50">
         <v>3</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71" t="s">
+      <c r="E7" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71" t="s">
+      <c r="I7" s="50"/>
+      <c r="J7" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L7" s="71" t="s">
+      <c r="L7" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M7" s="71" t="s">
+      <c r="M7" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:16" ht="240" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="48">
         <v>43876</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="50">
         <v>4</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="E8" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71" t="s">
+      <c r="E8" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71" t="s">
+      <c r="I8" s="50"/>
+      <c r="J8" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L8" s="71" t="s">
+      <c r="L8" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M8" s="71" t="s">
+      <c r="M8" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
     </row>
     <row r="9" spans="1:16" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="69">
+      <c r="A9" s="48">
         <v>43876</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="50">
         <v>5</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71" t="s">
+      <c r="E9" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71" t="s">
+      <c r="I9" s="50"/>
+      <c r="J9" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="71" t="s">
+      <c r="K9" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M9" s="71" t="s">
+      <c r="M9" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
     </row>
     <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="69">
+      <c r="A10" s="48">
         <v>43876</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="71">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50">
         <v>6</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E10" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71" t="s">
+      <c r="I10" s="50"/>
+      <c r="J10" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
     </row>
     <row r="11" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="69">
+      <c r="A11" s="48">
         <v>43876</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="50">
         <v>7</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="71" t="s">
+      <c r="E11" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72" t="s">
+      <c r="G11" s="50"/>
+      <c r="H11" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
     </row>
     <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="69">
+      <c r="A12" s="48">
         <v>43876</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="50">
         <v>8</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="E12" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="71" t="s">
+      <c r="E12" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71" t="s">
+      <c r="I12" s="50"/>
+      <c r="J12" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M12" s="71" t="s">
+      <c r="M12" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
     </row>
     <row r="13" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="69">
+      <c r="A13" s="48">
         <v>43876</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="50">
         <v>9</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="71" t="s">
+      <c r="E13" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71" t="s">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
     </row>
     <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="69">
+      <c r="A14" s="48">
         <v>43876</v>
       </c>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="50">
         <v>10</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="71" t="s">
+      <c r="E14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71" t="s">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="69">
+      <c r="A15" s="48">
         <v>43876</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="50">
         <v>11</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="E15" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="71" t="s">
+      <c r="E15" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
     </row>
     <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="69">
+      <c r="A16" s="48">
         <v>43876</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="71">
+      <c r="C16" s="50">
         <v>12</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="50" t="s">
         <v>276</v>
       </c>
-      <c r="E16" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="71" t="s">
+      <c r="E16" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="G16" s="71" t="s">
+      <c r="G16" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71" t="s">
+      <c r="I16" s="50"/>
+      <c r="J16" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M16" s="71" t="s">
+      <c r="M16" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="69">
+      <c r="A17" s="48">
         <v>43876</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="71">
+      <c r="C17" s="50">
         <v>13</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="71" t="s">
+      <c r="E17" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="71" t="s">
+      <c r="G17" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
     </row>
     <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="69">
+      <c r="A18" s="48">
         <v>43876</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="50">
         <v>14</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="71" t="s">
+      <c r="E18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71" t="s">
+      <c r="I18" s="50"/>
+      <c r="J18" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L18" s="71" t="s">
+      <c r="L18" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M18" s="71" t="s">
+      <c r="M18" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
     </row>
     <row r="19" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="69">
+      <c r="A19" s="48">
         <v>43876</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="50">
         <v>16</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="71" t="s">
+      <c r="E19" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72" t="s">
+      <c r="G19" s="50"/>
+      <c r="H19" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71" t="s">
+      <c r="I19" s="50"/>
+      <c r="J19" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="69">
+      <c r="A20" s="48">
         <v>43876</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="71">
+      <c r="C20" s="50">
         <v>17</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="71" t="s">
+      <c r="E20" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71" t="s">
+      <c r="I20" s="50"/>
+      <c r="J20" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K20" s="71" t="s">
+      <c r="K20" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L20" s="71" t="s">
+      <c r="L20" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M20" s="71" t="s">
+      <c r="M20" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="69">
+      <c r="A21" s="48">
         <v>43876</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="50">
         <v>18</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="71" t="s">
+      <c r="E21" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72" t="s">
+      <c r="G21" s="50"/>
+      <c r="H21" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71" t="s">
+      <c r="I21" s="50"/>
+      <c r="J21" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L21" s="71" t="s">
+      <c r="L21" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M21" s="71" t="s">
+      <c r="M21" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
     </row>
     <row r="22" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="69">
+      <c r="A22" s="48">
         <v>43876</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="71">
+      <c r="C22" s="50">
         <v>19</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="71" t="s">
+      <c r="E22" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71" t="s">
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K22" s="71" t="s">
+      <c r="K22" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L22" s="71" t="s">
+      <c r="L22" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="71" t="s">
+      <c r="M22" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
     </row>
     <row r="23" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="69">
+      <c r="A23" s="48">
         <v>43876</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="C23" s="71">
+      <c r="C23" s="50">
         <v>20</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="71" t="s">
+      <c r="E23" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72" t="s">
+      <c r="G23" s="50"/>
+      <c r="H23" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71" t="s">
+      <c r="I23" s="50"/>
+      <c r="J23" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L23" s="71" t="s">
+      <c r="L23" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M23" s="71" t="s">
+      <c r="M23" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
     </row>
     <row r="24" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="69">
+      <c r="A24" s="48">
         <v>43881</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="50">
         <v>28</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="71" t="s">
+      <c r="E24" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71" t="s">
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K24" s="71" t="s">
+      <c r="K24" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L24" s="71" t="s">
+      <c r="L24" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M24" s="71" t="s">
+      <c r="M24" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="69">
+      <c r="A25" s="48">
         <v>43881</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="50">
         <v>29</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="E25" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="71" t="s">
+      <c r="E25" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71" t="s">
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K25" s="71" t="s">
+      <c r="K25" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M25" s="71" t="s">
+      <c r="M25" s="50" t="s">
         <v>472</v>
       </c>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
     </row>
     <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+      <c r="A26" s="48">
         <v>43881</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="49" t="s">
         <v>459</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="50">
         <v>30</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="E26" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="71" t="s">
+      <c r="E26" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71" t="s">
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L26" s="71" t="s">
+      <c r="L26" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M26" s="71" t="s">
+      <c r="M26" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
     </row>
     <row r="27" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="69">
+      <c r="A27" s="48">
         <v>43881</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="50">
         <v>31</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="E27" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="71" t="s">
+      <c r="E27" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71" t="s">
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L27" s="71" t="s">
+      <c r="L27" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M27" s="71" t="s">
+      <c r="M27" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
     </row>
     <row r="28" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="69">
+      <c r="A28" s="48">
         <v>43881</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50">
         <v>32</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="71" t="s">
+      <c r="E28" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71" t="s">
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K28" s="71" t="s">
+      <c r="K28" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L28" s="71" t="s">
+      <c r="L28" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M28" s="71" t="s">
+      <c r="M28" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
     </row>
     <row r="29" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="69">
+      <c r="A29" s="48">
         <v>43881</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50">
         <v>33</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="71" t="s">
+      <c r="E29" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71" t="s">
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="K29" s="71" t="s">
+      <c r="K29" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="L29" s="71" t="s">
+      <c r="L29" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="M29" s="71" t="s">
+      <c r="M29" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+    </row>
+    <row r="30" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="48">
+        <v>43882</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50">
+        <v>34</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="L30" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="M30" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5286,15 +5339,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="38"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
       <c r="K1" s="38"/>
@@ -5303,15 +5356,15 @@
       <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="39" t="s">
         <v>24</v>
       </c>
@@ -5326,15 +5379,15 @@
       <c r="A3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="68">
+      <c r="B3" s="76">
         <v>43871</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
@@ -5349,15 +5402,15 @@
       <c r="A4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
@@ -7109,17 +7162,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="73" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -7137,8 +7190,8 @@
       <c r="F2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
@@ -7162,8 +7215,8 @@
       <c r="F3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
       <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
@@ -7185,10 +7238,10 @@
       <c r="F4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="64" t="s">
+      <c r="G4" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="H4" s="64"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="1"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
